--- a/受控文档/需求工程项目计划/wbs表.xlsx
+++ b/受控文档/需求工程项目计划/wbs表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\schoolwork\需求分析\Github\受控文档\需求工程项目计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\schoolwork\需求分析\受控文档\需求工程项目计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF46ADD1-77E5-4DAB-8C5C-C727EFE8954F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1FEE3-5288-4A70-B789-C47A1947B61C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22940" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="10464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="155">
   <si>
     <t>软件工程系列辅助网站</t>
   </si>
@@ -488,10 +488,6 @@
   </si>
   <si>
     <t>2018.12.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求开发过程</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,14 +546,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -712,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +755,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,48 +827,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -834,21 +834,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1129,44 +1114,44 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C48"/>
+      <selection activeCell="D23" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.25" customWidth="1"/>
+    <col min="6" max="6" width="68.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1178,11 +1163,11 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1194,11 +1179,11 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1196,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1220,81 +1205,81 @@
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26" t="s">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1308,65 +1293,65 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1378,9 +1363,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
@@ -1392,589 +1377,553 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="6" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="6" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="D23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="9" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="6" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="6" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="6" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="6" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="D27" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="30"/>
+      <c r="F27" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="6" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="6" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="6" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="6" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="6" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="6" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="6" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="6" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="6" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="6" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="6" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="42" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="D34" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="6" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="6" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="6" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="6" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="6" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="6" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="D37" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="6" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="6" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="6" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="6" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="D39" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="6" t="s">
+      <c r="E39" s="28"/>
+      <c r="F39" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="6" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="6" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="39"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="6" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="6" t="s">
+      <c r="E41" s="8"/>
+      <c r="F41" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="39"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="6" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="D42" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="6" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="42" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+      <c r="B43" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="D43" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="6" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="6" t="s">
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="D44" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="6" t="s">
+      <c r="E44" s="28"/>
+      <c r="F44" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="6" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="D45" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="6" t="s">
+      <c r="E45" s="28"/>
+      <c r="F45" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="6" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="6" t="s">
+      <c r="E46" s="8"/>
+      <c r="F46" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="6" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="D47" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="6" t="s">
+      <c r="E47" s="28"/>
+      <c r="F47" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="6" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="6" t="s">
+      <c r="E48" s="8"/>
+      <c r="F48" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="35" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="D49" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="6" t="s">
+      <c r="E49" s="28"/>
+      <c r="F49" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="6" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="D50" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="6" t="s">
+      <c r="E50" s="19"/>
+      <c r="F50" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="6" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="D51" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="6" t="s">
+      <c r="E51" s="19"/>
+      <c r="F51" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="6" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="D52" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="6" t="s">
+      <c r="E52" s="19"/>
+      <c r="F52" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="6" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="D53" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="30"/>
-      <c r="G53" s="6" t="s">
+      <c r="E53" s="19"/>
+      <c r="F53" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="36" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="25" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="29"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
-      <c r="B55" s="37"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="29"/>
+      <c r="E55" s="28"/>
       <c r="F55" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
-      <c r="B56" s="37"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="29"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
-      <c r="B57" s="37"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="29"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
-      <c r="B58" s="37"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="12" t="s">
         <v>134</v>
       </c>
@@ -1986,9 +1935,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="37"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="12" t="s">
         <v>137</v>
       </c>
@@ -2000,9 +1949,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
-      <c r="B60" s="37"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="12" t="s">
         <v>140</v>
       </c>
@@ -2014,9 +1963,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="37"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="15" t="s">
         <v>143</v>
       </c>
@@ -2028,161 +1977,160 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="34" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41" t="s">
+      <c r="E62" s="18"/>
+      <c r="F62" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="34" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41" t="s">
+      <c r="E66" s="18"/>
+      <c r="F66" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="68">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="A20:A61"/>
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="F62:F65"/>
     <mergeCell ref="F66:F69"/>
     <mergeCell ref="D66:E69"/>
     <mergeCell ref="D62:E65"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C20:C33"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="A20:A61"/>
-    <mergeCell ref="B20:B53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
